--- a/Design/Table/Xlsx/MapInfo.xlsx
+++ b/Design/Table/Xlsx/MapInfo.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23328"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32C68E56-E17A-40EA-80B7-5E67851B195E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CD64F7A-9C88-413C-9288-AD73722617C4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,8 +33,8 @@
             <charset val="134"/>
           </rPr>
           <t>{MapTypeID}
-无符号整形
-全局唯一的地图ID</t>
+UInt
+unique map id</t>
         </r>
       </text>
     </comment>
@@ -49,7 +49,7 @@
             <charset val="134"/>
           </rPr>
           <t>{Name}
-字符串</t>
+String</t>
         </r>
       </text>
     </comment>
@@ -64,28 +64,13 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">{Desc}
-(客户端用)
-字符串
+(ClientOnly)
+String
 </t>
         </r>
       </text>
     </comment>
-    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>{resId}
-字符串</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
+    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
       <text>
         <r>
           <rPr>
@@ -96,19 +81,14 @@
             <charset val="134"/>
           </rPr>
           <t>{Type}
-枚举
-[未定义:0:none]
-[竞技:1:race]
-[试炼关卡:2:test]
-[boss关卡:3:boss]
-[主线关卡:4:main]
-[交互关卡:5:jiaohu]
-[战场:6:war]
-[人机对战:7:mmwar]</t>
+Enum
+[None:0:none]
+[Main:1:mainMap]
+[Mission:2:missionMap]</t>
         </r>
       </text>
     </comment>
-    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000006000000}">
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000006000000}">
       <text>
         <r>
           <rPr>
@@ -119,13 +99,13 @@
             <charset val="134"/>
           </rPr>
           <t>{Property}
-位组合
-&lt;英雄全开:1:allopen&gt;
-&lt;支持AI:2:useai&gt;</t>
+BitmaskEnum
+&lt;AllHeros:1:allHero&gt;
+&lt;AISupported:2:useAi&gt;</t>
         </r>
       </text>
     </comment>
-    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00001A000000}">
+    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00001A000000}">
       <text>
         <r>
           <rPr>
@@ -136,9 +116,9 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">{Path}
-(客户端用)
-字符串
-文件路径
+(ClientOnly)
+String
+Map asset path
 </t>
         </r>
       </text>
@@ -148,35 +128,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="23">
-  <si>
-    <t>地图ID</t>
-  </si>
-  <si>
-    <t>地图名称</t>
-  </si>
-  <si>
-    <t>地图类型</t>
-  </si>
-  <si>
-    <t>地图特性</t>
-  </si>
-  <si>
-    <t>地图文件路径</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="19">
   <si>
     <t>M001</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>竞技</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>英雄全开</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>M002</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -185,56 +142,54 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>竞技</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>英雄全开</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Data/Scence/JingJi_5v5/5v5DiXing</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>王涛测试用的地图</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>small_land</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>资源ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>M003</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>标准地图</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>standard_land</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>竞技</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>备注</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>永生谷（5V5对战测试）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>永生谷</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>MapID</t>
+  </si>
+  <si>
+    <t>MapName</t>
+  </si>
+  <si>
+    <t>Note</t>
+  </si>
+  <si>
+    <t>MapType</t>
+  </si>
+  <si>
+    <t>MapAttr</t>
+  </si>
+  <si>
+    <t>MapFile</t>
+  </si>
+  <si>
+    <t>Main Map</t>
+  </si>
+  <si>
+    <t>Test Map</t>
+  </si>
+  <si>
+    <t>Demo Map</t>
+  </si>
+  <si>
+    <t>Used for demo</t>
+  </si>
+  <si>
+    <t>Used for Tao Wang testing</t>
+  </si>
+  <si>
+    <t>The major map</t>
+  </si>
+  <si>
+    <t>Main</t>
+  </si>
+  <si>
+    <t>AllHeros</t>
   </si>
 </sst>
 </file>
@@ -698,128 +653,117 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="M1" sqref="M1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="C4" sqref="C4"/>
+      <selection pane="bottomRight" activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
     <col min="2" max="2" width="49.26953125" customWidth="1"/>
     <col min="3" max="3" width="41" style="2" customWidth="1"/>
-    <col min="4" max="4" width="16.7265625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="53" customWidth="1"/>
+    <col min="4" max="4" width="18.08984375" customWidth="1"/>
+    <col min="5" max="5" width="18.36328125" customWidth="1"/>
+    <col min="6" max="6" width="53" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="159" customHeight="1">
+    <row r="1" spans="1:6" ht="159" customHeight="1">
       <c r="A1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D1" s="1" t="s">
+      <c r="B3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="D3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="42" customHeight="1">
+      <c r="A4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="2" t="s">
         <v>2</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F2" t="s">
-        <v>7</v>
-      </c>
-      <c r="G2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="42" customHeight="1">
-      <c r="A4" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>9</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="B3 E3:G3">
+  <conditionalFormatting sqref="B3 D3:F3">
     <cfRule type="cellIs" dxfId="3" priority="203" stopIfTrue="1" operator="notEqual">
       <formula>INDIRECT("Dummy_for_Comparison1!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F4">
+  <conditionalFormatting sqref="E4">
     <cfRule type="cellIs" dxfId="2" priority="199" stopIfTrue="1" operator="notEqual">
       <formula>INDIRECT("Dummy_for_Comparison1!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G4">
+  <conditionalFormatting sqref="F4">
     <cfRule type="cellIs" dxfId="1" priority="177" stopIfTrue="1" operator="notEqual">
       <formula>INDIRECT("Dummy_for_Comparison1!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
     </cfRule>
